--- a/Employee_Reports35/Joevergil Cajocson Dormitorio Q0138.xlsx
+++ b/Employee_Reports35/Joevergil Cajocson Dormitorio Q0138.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1200,11 +1200,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1249,11 +1249,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1298,11 +1298,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1347,11 +1347,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1396,11 +1396,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1445,11 +1445,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1495,11 +1495,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1544,11 +1544,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1581,11 +1581,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1630,11 +1630,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1679,11 +1679,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1728,11 +1728,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1777,11 +1777,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1826,11 +1826,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1875,11 +1875,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1912,11 +1912,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">

--- a/Employee_Reports35/Joevergil Cajocson Dormitorio Q0138.xlsx
+++ b/Employee_Reports35/Joevergil Cajocson Dormitorio Q0138.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1200,11 +1200,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1249,11 +1249,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1298,11 +1298,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1347,11 +1347,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1396,11 +1396,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1445,11 +1445,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1495,11 +1495,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1544,11 +1544,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1581,11 +1581,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1630,11 +1630,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1679,11 +1679,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1728,11 +1728,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1777,11 +1777,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1826,11 +1826,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1875,11 +1875,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1912,11 +1912,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
